--- a/data/processed/df_osf_sia_wd_20251127.xlsx
+++ b/data/processed/df_osf_sia_wd_20251127.xlsx
@@ -355,278 +355,283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA3"/>
+  <dimension ref="A1:BB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
-    <col min="51" max="51" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
+    <col min="52" max="52" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>device_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Manufacturer</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Device</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Website</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Release date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Market status</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Main use</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Device costs</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Wearable type</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Location</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Size</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>PPG</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ECG</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ICG</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>EMG</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Respiration</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>EEG</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>BP</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Accelerometer</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Gyroscope</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Skin temperature</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Other signals</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Water resistance</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Battery life</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Charging method</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Charging duration</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Bio-cueing</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Bio-feedback</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Raw data available</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Provided parameters</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Parameter sampling window (1min; 5min; 1hour; 1day)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Data transfer method</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Compatibility</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Required software</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Additional software</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Internal storage method</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Device storage capacity</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Server Data Storage</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>GDPR compliance</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>FDA approval/clearance</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>CE approval/label</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Highest level of Validation Evidence</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Number of validity and reliability studies reviewed</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Studied parameters</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>General validity and reliability synthesis</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Number of usability studies reviewed</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>General usability synthesis</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Hyperlink to the device VRU page</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Most recent date of RVU search</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>SiA Expert score (short-term)</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>SiA Expert score (long-term)</t>
         </is>
@@ -635,65 +640,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>001_sia_wd_emp</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Empatica</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>E4</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>https://www.empatica.com/research/e4/</t>
         </is>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>42005</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Discontinued</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Research</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>1542; one-time purchase price including a device + software</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Watch</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>Wrist</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>L44xW40xH16</t>
         </is>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>40</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1; reflection; 64; wrist</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>0</t>
@@ -711,14 +716,14 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>1; dry electrode; 4; wrist</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="S2" t="inlineStr">
         <is>
           <t>0</t>
@@ -726,14 +731,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
           <t>1; 3 axes; 32; wrist</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>0</t>
@@ -741,193 +746,198 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
           <t>1; 0.2(36-39); 4; wrist</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>0; If other signals are available, make available column yes and the list of signals goes here as text</t>
         </is>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1</v>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>48; hours</t>
         </is>
       </c>
-      <c r="AA2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>device charger</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>120; minutes</t>
         </is>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
       </c>
       <c r="AE2">
         <v>1</v>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>BLE; USB 2.0</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>Windows 7-10; iOS 8.2 or higher; Android 8.1 or higher; macOS NA</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>E4 manager; Empatica Connect web dashboard;</t>
         </is>
       </c>
-      <c r="AK2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>E4 Realtime</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>built-in storage</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>60; hours; 60; mb</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="AO2">
+      <c r="AP2">
         <v>1</v>
       </c>
-      <c r="AP2">
+      <c r="AQ2">
         <v>0</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>1</v>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
         <is>
           <t>external</t>
         </is>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>10</v>
       </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AU2" t="inlineStr">
         <is>
           <t>HF; HR; IBI; ns.SCRs; NS-SCRs-AMP; NS-SCRs-FREQ; RMSSD; S; SCR-AMP; SCRs; SCL; SD1; SD1UP; SD1DOWN; SD2; SDNN ; SDRR</t>
         </is>
       </c>
-      <c r="AU2" t="inlineStr">
+      <c r="AV2" t="inlineStr">
         <is>
           <t>Most studies comparing E4 to a reference device (RD) suggest high validity of HR under static and dynamic conditions (one study found opposite results) and often report HRV parameters as valid but only in static conditions, although results seem conclusive only for RMSSD and SDNN. Movement and speech have been shown to result not only in decreased accuracy but also in high amounts of missing data. Missing data was also observed in static conditions and was attributed to issues with E4’s automatic IBI detection. It also appears E4 cannot provide convergently valid EDA (possibly due to differences in device location). However, one study reported high correlation of SCL with an RD despite it measuring from fingers, with yet another study reporting validity of amplitude of SCRs for strong sustained stressors.</t>
         </is>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>5</v>
       </c>
-      <c r="AW2" t="inlineStr">
+      <c r="AX2" t="inlineStr">
         <is>
           <t>E4 was generally considered easy to use with charging and handling the data reported as burdensome in multiple studies. Adherence was found to be high but results are inconsistent when it comes to wearing comfort.</t>
         </is>
       </c>
-      <c r="AY2" s="2">
+      <c r="AZ2" s="2">
         <v>45104</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>5</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>6.7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>002_sia_wd_emp</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Empatica</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>EmbracePlus</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>https://www.empatica.com/embraceplus/</t>
         </is>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>43831</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Current</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Research &amp; Clinical</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>1984; three year bundle per a device + software (25% academic discount available)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Watch</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Wrist</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>D32xH15</t>
         </is>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>38</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>1; transmission &amp; reflection; green, red and infrared; 26-208; wrist</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>0</t>
@@ -945,14 +955,14 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>1; dry electrode; 1-4; wrist</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>0</t>
@@ -960,93 +970,95 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
           <t>1; 3 axes; 26-208; wrist</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>1; 3 axes; 26-208; wrist</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="W3" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
           <t>1; 0.1(30-45); 1-4; wrist</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3">
         <v>1</v>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>48; hours</t>
         </is>
       </c>
-      <c r="AA3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
         <is>
           <t>device charger</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>90; minutes</t>
         </is>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
       </c>
       <c r="AE3">
         <v>1</v>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>HR; HRV; RR; Skin Temp; SpO2; EDA; Activity Counts; Sleep Detection</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>1min: HR, HRV; 1day:Activity Counts</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>BLE; Blt 5.0</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>Windows NA; iOS 11 or higher; Android 8.0 or higher; macOS NA</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>Care app; Care web portal</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>built-in storage</t>
         </is>
       </c>
-      <c r="AM3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>24; hours; 128; mb</t>
         </is>
-      </c>
-      <c r="AO3">
-        <v>1</v>
       </c>
       <c r="AP3">
         <v>1</v>
@@ -1054,39 +1066,42 @@
       <c r="AQ3">
         <v>1</v>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3" t="inlineStr">
         <is>
           <t>internal</t>
         </is>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>1</v>
       </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AU3" t="inlineStr">
         <is>
           <t>SpO2</t>
         </is>
       </c>
-      <c r="AU3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
         <is>
           <t>Reliable and valid for use in clinical SpO2 measurement under static conditions, for both male and female subjects as well as for different skin tones.</t>
         </is>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>0</v>
       </c>
-      <c r="AW3" t="inlineStr">
+      <c r="AX3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="AY3" s="2">
+      <c r="AZ3" s="2">
         <v>45187</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>5.7</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>8</v>
       </c>
     </row>

--- a/data/processed/df_osf_sia_wd_20251127.xlsx
+++ b/data/processed/df_osf_sia_wd_20251127.xlsx
@@ -418,12 +418,12 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Weight</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -686,13 +686,13 @@
           <t>Wrist</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2">
+        <v>40</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>L44xW40xH16</t>
         </is>
-      </c>
-      <c r="L2">
-        <v>40</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -925,13 +925,13 @@
           <t>Wrist</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K3">
+        <v>38</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>D32xH15</t>
         </is>
-      </c>
-      <c r="L3">
-        <v>38</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
